--- a/csv/Bares-TheGlass.xlsx
+++ b/csv/Bares-TheGlass.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26216"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="73" documentId="11_9248B46DC1CBB2E3ED7FF6F9903E8C1851038383" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FF9936C2-B6E3-4759-8469-FAC791ECAD26}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="124519"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
   <si>
     <t>nombre</t>
   </si>
@@ -100,12 +99,48 @@
   </si>
   <si>
     <t>37.386891741462875, -5.992771986700449</t>
+  </si>
+  <si>
+    <t>descuentos</t>
+  </si>
+  <si>
+    <t>25% de descuento por 400 puntos</t>
+  </si>
+  <si>
+    <t>30% de descuento por 500 puntos</t>
+  </si>
+  <si>
+    <t>10% de descuento por 75 puntos</t>
+  </si>
+  <si>
+    <t>15% de descuento por 100 puntos</t>
+  </si>
+  <si>
+    <t>20% de descuento por 150 puntos</t>
+  </si>
+  <si>
+    <t>37.390120413908434, -5.990916104511015</t>
+  </si>
+  <si>
+    <t>El Chiringuito</t>
+  </si>
+  <si>
+    <t>20% de descuento por 200 puntos</t>
+  </si>
+  <si>
+    <t>15% de descuento por 120 puntos</t>
+  </si>
+  <si>
+    <t>20% de descuento por 175 puntos</t>
+  </si>
+  <si>
+    <t>25% de descuento por 300 puntos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -123,7 +158,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -142,8 +177,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -166,16 +207,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -236,7 +311,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -288,7 +363,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -482,29 +557,30 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="5" max="5" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -515,10 +591,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -528,9 +607,14 @@
       <c r="C2" s="3">
         <v>8</v>
       </c>
-      <c r="D2" s="3"/>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="D2" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -540,9 +624,14 @@
       <c r="C3" s="2">
         <v>5</v>
       </c>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="D3" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
@@ -552,9 +641,14 @@
       <c r="C4" s="3">
         <v>7</v>
       </c>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="D4" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -564,9 +658,14 @@
       <c r="C5" s="2">
         <v>6</v>
       </c>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="D5" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
@@ -576,9 +675,14 @@
       <c r="C6" s="3">
         <v>7</v>
       </c>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="D6" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
@@ -588,9 +692,14 @@
       <c r="C7" s="2">
         <v>9</v>
       </c>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="D7" s="8">
+        <v>0.15</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
         <v>16</v>
       </c>
@@ -600,9 +709,14 @@
       <c r="C8" s="3">
         <v>8</v>
       </c>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="D8" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
@@ -612,9 +726,14 @@
       <c r="C9" s="2">
         <v>10</v>
       </c>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="D9" s="8">
+        <v>0.15</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
         <v>20</v>
       </c>
@@ -624,19 +743,46 @@
       <c r="C10" s="3">
         <v>6</v>
       </c>
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="2" t="s">
+      <c r="D10" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="5">
         <v>10</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="9">
+        <v>0.15</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="6">
+        <v>8</v>
+      </c>
+      <c r="D12" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/csv/Bares-TheGlass.xlsx
+++ b/csv/Bares-TheGlass.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="43">
   <si>
     <t>nombre</t>
   </si>
@@ -131,10 +131,31 @@
     <t>15% de descuento por 120 puntos</t>
   </si>
   <si>
-    <t>20% de descuento por 175 puntos</t>
-  </si>
-  <si>
     <t>25% de descuento por 300 puntos</t>
+  </si>
+  <si>
+    <t>10% con 100 puntos</t>
+  </si>
+  <si>
+    <t>5% con 50 puntos</t>
+  </si>
+  <si>
+    <t>20% con 200 puntos</t>
+  </si>
+  <si>
+    <t>15% con 200 puntos</t>
+  </si>
+  <si>
+    <t>15% con 250 puntos</t>
+  </si>
+  <si>
+    <t>15% con 300 puntos</t>
+  </si>
+  <si>
+    <t>5% con 75 puntos</t>
+  </si>
+  <si>
+    <t>10% con 150 puntos</t>
   </si>
 </sst>
 </file>
@@ -557,7 +578,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -568,7 +589,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -607,8 +628,8 @@
       <c r="C2" s="3">
         <v>8</v>
       </c>
-      <c r="D2" s="7">
-        <v>0.1</v>
+      <c r="D2" s="7" t="s">
+        <v>35</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>29</v>
@@ -624,8 +645,8 @@
       <c r="C3" s="2">
         <v>5</v>
       </c>
-      <c r="D3" s="8">
-        <v>0.05</v>
+      <c r="D3" s="8" t="s">
+        <v>36</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>27</v>
@@ -641,8 +662,8 @@
       <c r="C4" s="3">
         <v>7</v>
       </c>
-      <c r="D4" s="7">
-        <v>0.1</v>
+      <c r="D4" s="7" t="s">
+        <v>35</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>33</v>
@@ -658,11 +679,11 @@
       <c r="C5" s="2">
         <v>6</v>
       </c>
-      <c r="D5" s="8">
-        <v>0.2</v>
+      <c r="D5" s="8" t="s">
+        <v>37</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -675,11 +696,11 @@
       <c r="C6" s="3">
         <v>7</v>
       </c>
-      <c r="D6" s="7">
-        <v>0.15</v>
+      <c r="D6" s="7" t="s">
+        <v>38</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -692,11 +713,11 @@
       <c r="C7" s="2">
         <v>9</v>
       </c>
-      <c r="D7" s="8">
-        <v>0.15</v>
+      <c r="D7" s="8" t="s">
+        <v>39</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -709,8 +730,8 @@
       <c r="C8" s="3">
         <v>8</v>
       </c>
-      <c r="D8" s="7">
-        <v>0.1</v>
+      <c r="D8" s="7" t="s">
+        <v>35</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>32</v>
@@ -726,8 +747,8 @@
       <c r="C9" s="2">
         <v>10</v>
       </c>
-      <c r="D9" s="8">
-        <v>0.15</v>
+      <c r="D9" s="8" t="s">
+        <v>40</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>26</v>
@@ -743,8 +764,8 @@
       <c r="C10" s="3">
         <v>6</v>
       </c>
-      <c r="D10" s="7">
-        <v>0.05</v>
+      <c r="D10" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>28</v>
@@ -760,8 +781,8 @@
       <c r="C11" s="5">
         <v>10</v>
       </c>
-      <c r="D11" s="9">
-        <v>0.15</v>
+      <c r="D11" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>25</v>
@@ -777,8 +798,8 @@
       <c r="C12" s="6">
         <v>8</v>
       </c>
-      <c r="D12" s="10">
-        <v>0.1</v>
+      <c r="D12" s="10" t="s">
+        <v>42</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>32</v>

--- a/csv/Bares-TheGlass.xlsx
+++ b/csv/Bares-TheGlass.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleja\Documents\Universidad\CM\TheGlass\csv\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2A14F10-3CFB-4412-98DE-4D89F8721BD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -27,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="48">
   <si>
     <t>nombre</t>
   </si>
@@ -156,13 +162,28 @@
   </si>
   <si>
     <t>10% con 150 puntos</t>
+  </si>
+  <si>
+    <t>CADA 5 EUROS</t>
+  </si>
+  <si>
+    <t>IMPORTE CUENTA</t>
+  </si>
+  <si>
+    <t>PUNTOS</t>
+  </si>
+  <si>
+    <t>TOTAL PUNTOS</t>
+  </si>
+  <si>
+    <t>EJEMPLOS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -260,7 +281,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -272,6 +293,12 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -578,30 +605,30 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="36.109375" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
     <col min="5" max="5" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -618,7 +645,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -635,7 +662,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -652,7 +679,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
@@ -669,7 +696,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -686,7 +713,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
@@ -703,7 +730,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
@@ -720,7 +747,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>16</v>
       </c>
@@ -737,7 +764,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
@@ -754,7 +781,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>20</v>
       </c>
@@ -771,7 +798,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>22</v>
       </c>
@@ -788,7 +815,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>31</v>
       </c>
@@ -805,7 +832,82 @@
         <v>32</v>
       </c>
     </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>30</v>
+      </c>
+      <c r="B17">
+        <v>8</v>
+      </c>
+      <c r="C17">
+        <f>A17*B17/5</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17.5</v>
+      </c>
+      <c r="B18">
+        <v>9</v>
+      </c>
+      <c r="C18">
+        <f t="shared" ref="C18:C20" si="0">A18*B18/5</f>
+        <v>31.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>5.5</v>
+      </c>
+      <c r="B19">
+        <v>6</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>5</v>
+      </c>
+      <c r="B20">
+        <v>7</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A15:C15"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/csv/Bares-TheGlass.xlsx
+++ b/csv/Bares-TheGlass.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleja\Documents\Universidad\CM\TheGlass\csv\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2A14F10-3CFB-4412-98DE-4D89F8721BD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="124519"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="60">
   <si>
     <t>nombre</t>
   </si>
@@ -177,13 +171,49 @@
   </si>
   <si>
     <t>EJEMPLOS</t>
+  </si>
+  <si>
+    <t>horario</t>
+  </si>
+  <si>
+    <t>12:00 - 3:00</t>
+  </si>
+  <si>
+    <t>11:00 - 3:00</t>
+  </si>
+  <si>
+    <t>16:00 - 2:00</t>
+  </si>
+  <si>
+    <t>17:00 - 2:00</t>
+  </si>
+  <si>
+    <t>15:30 - 5:00</t>
+  </si>
+  <si>
+    <t>12:00 - 2:00</t>
+  </si>
+  <si>
+    <t>15:30 - 2:00</t>
+  </si>
+  <si>
+    <t>15:00 - 1:00</t>
+  </si>
+  <si>
+    <t>20:00 - 4:00</t>
+  </si>
+  <si>
+    <t>13:30 - 1:00</t>
+  </si>
+  <si>
+    <t>18:00 - 0:00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -200,7 +230,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -225,8 +255,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -277,11 +313,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -299,6 +372,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -605,30 +686,31 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="36.109375" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
     <col min="5" max="5" width="29" customWidth="1"/>
+    <col min="6" max="6" width="16.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -641,11 +723,14 @@
       <c r="D1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="13" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" s="14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -658,11 +743,14 @@
       <c r="D2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="15" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2" s="19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -675,11 +763,14 @@
       <c r="D3" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="16" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3" s="20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
@@ -692,11 +783,14 @@
       <c r="D4" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="15" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F4" s="19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -709,11 +803,14 @@
       <c r="D5" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="16" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F5" s="20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
@@ -726,11 +823,14 @@
       <c r="D6" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="15" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F6" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
@@ -743,11 +843,14 @@
       <c r="D7" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="16" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F7" s="20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="3" t="s">
         <v>16</v>
       </c>
@@ -760,11 +863,14 @@
       <c r="D8" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="15" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F8" s="19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
@@ -777,11 +883,14 @@
       <c r="D9" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="16" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F9" s="20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="3" t="s">
         <v>20</v>
       </c>
@@ -794,11 +903,14 @@
       <c r="D10" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="15" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F10" s="19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="5" t="s">
         <v>22</v>
       </c>
@@ -811,11 +923,14 @@
       <c r="D11" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="17" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F11" s="20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="6" t="s">
         <v>31</v>
       </c>
@@ -828,34 +943,37 @@
       <c r="D12" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="18" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F12" s="19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="C13" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="11" t="s">
+    <row r="15" spans="1:6">
+      <c r="A15" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="12" t="s">
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="11" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3">
       <c r="A17">
         <v>30</v>
       </c>
@@ -867,7 +985,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3">
       <c r="A18">
         <v>17.5</v>
       </c>
@@ -879,7 +997,7 @@
         <v>31.5</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3">
       <c r="A19">
         <v>5.5</v>
       </c>
@@ -891,7 +1009,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3">
       <c r="A20">
         <v>5</v>
       </c>
